--- a/přílohy/správa-dat/Prehled_vecnych_oblasti_dat_1.1.xlsx
+++ b/přílohy/správa-dat/Prehled_vecnych_oblasti_dat_1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalniagentura.sharepoint.com/sites/Evidenceasdlendat/Sdilene dokumenty/Správa dat/Projekt Zajištění podmínek/3. Podpůrné materiály/1.1 Identifikace a prioritizace oblastí/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalniagentura.sharepoint.com/sites/EXTDIASprvadat/Sdilene dokumenty/General/4. Podpůrné materiály a vzory/1.1 Vymezení a prioritizace věcných oblastí dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{110F8874-C49E-43FB-8BAF-11EA7E9F639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9A8004-250E-4E46-911A-AE03CED8A940}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{23A3E93E-4484-4667-8DC0-D02F76606D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF1F0C1-5149-462F-AB2A-9A0DEB55D162}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prehled vecnych oblasti dat" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Přehled věcných oblastí dat</t>
   </si>
@@ -571,6 +571,35 @@
   <si>
     <t>Podrobnější charakteristika dat v jednotlivých věcných oblastech s využitím tří způsobů kategorizace definovaných § 23 vyhlášky 360/2023 Sb., o dlouhodobém řízení informačních systémů veřejné správy.
 Ty se zaměřují na původ (způsob získávání) dat, způsob jejich sdílení (mimo samotný výkon agend) a charakter jejich obsahu.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Přehled údajů podle způsobu jejich </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>získání</t>
+    </r>
   </si>
   <si>
     <r>
@@ -800,24 +829,12 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(stručně popište četnost a způsob poskytování údajů na žádost subjektu práva nebo na základě zákona o svobodném přístupu k  nebo jiného zákona (o správě dat a o řízeném přístupu k datům, o statistické službě apod.)</t>
+      <t>(stručně popište četnost a způsob poskytování údajů na žádost subjektu práva nebo na základě zákona o svobodném přístupu k informacím nebo jiného zákona (o správě dat a o řízeném přístupu k datům, o statistické službě apod.)</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Údaje zpřístupňované pro výkon agendy
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -835,6 +852,36 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Údaje nesdílené
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(stručně popište rozsah vlastních údajů , které nejsou sdílené žádným z předchozích způsobů)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -906,7 +953,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Provozní údaje
+      <t xml:space="preserve">Údaje statistické
 </t>
     </r>
     <r>
@@ -1007,50 +1054,13 @@
     </r>
   </si>
   <si>
-    <t>žádné</t>
-  </si>
-  <si>
-    <t>Data o řidičích, jejich řidičských oprávněních a průkazech, přestupcích a jejich řešení</t>
-  </si>
-  <si>
-    <t>3 datové sady týkající se statistiky přestupků publikované na webu, v lokálním a národním katalogu otevřených dat</t>
-  </si>
-  <si>
-    <t>Na žádost subjektu práva jsou poskytovány veškeré údaje o přestupcích a kompletní výpis z karty řidiče</t>
-  </si>
-  <si>
-    <t>Jméno, příjmení, místo a datum narození, místo pobytu řidiče
-Jméno, příjmení, datum narození mentora</t>
-  </si>
-  <si>
-    <t>Statistiky bodovaných přestupků a trestných činů (podle jednotlivých zákonů, krajů atd.)
-Statistiky bodovaných řidičů (podle počtu bodů, pohlaví, všku, roku udělení řidičského oprávnění, trendů atd.)</t>
-  </si>
-  <si>
-    <t>Prioritní oblast</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>Data získaná k řidiči  z Registru obyvatel</t>
-  </si>
-  <si>
-    <t>Data vztahující se k průběhu zpracování žádostí o řidičský průkaz jsou  vyhodnocována v podobě metrik digitálních služeb</t>
-  </si>
-  <si>
-    <t>Vlastní údaje agendy jsou zpřístupněny prostřednictvím kontextu na ISSS</t>
-  </si>
-  <si>
-    <t>Všechny další vlastní údaje agendy mimo ty vyjmenované jako identifikační</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Údaje statistické
-</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <t xml:space="preserve">Údaje poskytované na žádost
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="8"/>
         <color theme="0"/>
         <rFont val="Calibri"/>
@@ -1071,28 +1081,49 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(stručně popište rozsah a podobu statistických údajů, které seskupují a formou anonymizace či pseudonymizace zamezují vazbě na objekt či subjekt práva; např. průměry, mediány, počty nehod, počty trestních činů, oblasti s výskytem chřipky apod.)</t>
+      <t>(stručně popište četnost a způsob poskytování údajů na žádost subjektu práva nebo na základě zákona o svobodném přístupu k  nebo jiného zákona (o správě dat a o řízeném přístupu k datům, o statistické službě apod.)</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve"> [PŘÍKLAD] Agenda řidičů</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Přehled údajů podle způsobu jejich </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>získání</t>
-    </r>
+    <t>Data získaná k řidiči  z Registru obyvatel</t>
+  </si>
+  <si>
+    <t>žádné</t>
+  </si>
+  <si>
+    <t>Data o řidičích, jejich řidičských oprávněních a průkazech, přestupcích a jejich řešení</t>
+  </si>
+  <si>
+    <t>Data vztahující se k průběhu zpracování žádostí o řidičský průkaz jsou  vyhodnocována v podobě metrik digitálních služeb</t>
+  </si>
+  <si>
+    <t>3 datové sady týkající se statistiky přestupků publikované na webu, v lokálním a národním katalogu otevřených dat</t>
+  </si>
+  <si>
+    <t>Na žádost subjektu práva jsou poskytovány veškeré údaje o přestupcích a kompletní výpis z karty řidiče</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlastní údaje agendy jsou zpřístupněny prostřednictvím kontextu na ISSS </t>
+  </si>
+  <si>
+    <t>Jméno, příjmení, místo a datum narození, místo pobytu řidiče
+Jméno, příjmení, datum narození mentora</t>
+  </si>
+  <si>
+    <t>Všechny další vlastní údaje agendy mimo ty vyjmenované jako identifikační</t>
+  </si>
+  <si>
+    <t>Statistiky bodovaných přestupků a trestných činů (podle jednotlivých zákonů, krajů atd.)
+Statistiky bodovaných řidičů (podle počtu bodů, pohlaví, všku, roku udělení řidičského oprávnění, trendů atd.)</t>
+  </si>
+  <si>
+    <t>Prioritní oblast</t>
+  </si>
+  <si>
+    <t>ne</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1293,6 +1324,8 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1302,6 +1335,8 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1746,9 +1781,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 –⁠ 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1786,7 +1821,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 –⁠ 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1892,7 +1927,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 –⁠ 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2034,7 +2069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2048,26 +2083,28 @@
   </sheetPr>
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="132" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="39.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" customWidth="1"/>
-    <col min="8" max="8" width="3.7265625" style="23" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.1796875" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="12" width="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="16" width="4.81640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="28.7265625" customWidth="1"/>
-    <col min="18" max="20" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="23" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="12" width="7" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="16" width="4.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
+    <col min="18" max="20" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:20" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:20" ht="48.95" customHeight="1">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
@@ -2092,7 +2129,7 @@
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
     </row>
-    <row r="3" spans="2:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="19.5" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2154,7 @@
       <c r="S3" s="12"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="2:20" ht="6.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="6.6" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2138,7 +2175,7 @@
       <c r="S4" s="12"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="2:20" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" ht="11.1" customHeight="1">
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2175,7 +2212,7 @@
       <c r="S5" s="12"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="2:20" s="7" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" s="7" customFormat="1" ht="69.95" customHeight="1">
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2261,7 +2298,7 @@
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
     </row>
-    <row r="8" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2288,7 +2325,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2315,7 +2352,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2342,7 +2379,7 @@
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
     </row>
-    <row r="11" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2369,7 +2406,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
     </row>
-    <row r="12" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2396,7 +2433,7 @@
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="13" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -2423,7 +2460,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -2450,7 +2487,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
     </row>
-    <row r="15" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -2477,7 +2514,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
     </row>
-    <row r="16" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -2504,7 +2541,7 @@
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2531,7 +2568,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2558,7 +2595,7 @@
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -2585,7 +2622,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2612,7 +2649,7 @@
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -2639,7 +2676,7 @@
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -2666,7 +2703,7 @@
       <c r="S22" s="15"/>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -2693,7 +2730,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="16"/>
     </row>
-    <row r="24" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -2720,7 +2757,7 @@
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2747,7 +2784,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -2803,27 +2840,26 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" customWidth="1"/>
-    <col min="6" max="6" width="35.1796875" customWidth="1"/>
-    <col min="7" max="8" width="28.54296875" customWidth="1"/>
-    <col min="9" max="9" width="35.1796875" customWidth="1"/>
-    <col min="10" max="11" width="28.54296875" customWidth="1"/>
-    <col min="12" max="12" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="12" width="28.5703125" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:13" ht="27.95" customHeight="1">
       <c r="B2" s="46" t="s">
         <v>24</v>
       </c>
@@ -2836,9 +2872,10 @@
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
       <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="2:12" ht="6.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+    </row>
+    <row r="3" spans="2:13" ht="6.6" customHeight="1">
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2849,63 +2886,68 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.45" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="49" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
-      <c r="J4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
-    </row>
-    <row r="5" spans="2:12" s="7" customFormat="1" ht="109" x14ac:dyDescent="0.35">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="2:13" s="7" customFormat="1" ht="108.95">
       <c r="B5" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="K5" s="36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -2916,9 +2958,10 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2929,9 +2972,10 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2942,9 +2986,10 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2955,9 +3000,10 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2968,9 +3014,10 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2981,9 +3028,10 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2994,9 +3042,10 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -3007,9 +3056,10 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -3020,9 +3070,10 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -3033,9 +3084,10 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -3046,9 +3098,10 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3059,9 +3112,10 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -3072,9 +3126,10 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -3085,9 +3140,10 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -3098,9 +3154,10 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -3111,9 +3168,10 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -3124,9 +3182,10 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -3137,9 +3196,10 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -3150,9 +3210,10 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -3163,14 +3224,15 @@
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3186,25 +3248,25 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="137" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="3" width="40.54296875" customWidth="1"/>
-    <col min="4" max="4" width="39.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" customWidth="1"/>
-    <col min="8" max="8" width="3.7265625" style="23" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.1796875" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.140625" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="12" width="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="16" width="4.81640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="28.7265625" customWidth="1"/>
-    <col min="18" max="20" width="27.453125" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
+    <col min="18" max="20" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:20" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:20" ht="48.95" customHeight="1">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
@@ -3229,7 +3291,7 @@
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
     </row>
-    <row r="3" spans="2:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="19.5" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
@@ -3254,7 +3316,7 @@
       <c r="S3" s="12"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="2:20" ht="6.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="6.6" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3275,7 +3337,7 @@
       <c r="S4" s="12"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="2:20" ht="11.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" ht="11.1" customHeight="1">
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3312,7 +3374,7 @@
       <c r="S5" s="12"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="2:20" s="7" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" s="7" customFormat="1" ht="69.95" customHeight="1">
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
@@ -3371,22 +3433,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:20" s="17" customFormat="1" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" s="17" customFormat="1" ht="217.5">
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="24">
         <f>IF(I7=0,"",_xlfn.RANK.EQ(I7,$I$7:$I$26))</f>
@@ -3422,18 +3484,18 @@
       <c r="S7" s="15"/>
       <c r="T7" s="16"/>
     </row>
-    <row r="8" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B8" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="24">
         <f>IF(I8=0,"",_xlfn.RANK.EQ(I8,$I$7:$I$26))</f>
@@ -3469,7 +3531,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="16"/>
     </row>
-    <row r="9" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -3496,7 +3558,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -3523,7 +3585,7 @@
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
     </row>
-    <row r="11" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3550,7 +3612,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="16"/>
     </row>
-    <row r="12" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -3577,7 +3639,7 @@
       <c r="S12" s="15"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="13" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -3604,7 +3666,7 @@
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -3631,7 +3693,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="16"/>
     </row>
-    <row r="15" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -3658,7 +3720,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="16"/>
     </row>
-    <row r="16" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -3685,7 +3747,7 @@
       <c r="S16" s="15"/>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3712,7 +3774,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -3739,7 +3801,7 @@
       <c r="S18" s="15"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -3766,7 +3828,7 @@
       <c r="S19" s="15"/>
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -3793,7 +3855,7 @@
       <c r="S20" s="15"/>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -3820,7 +3882,7 @@
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -3847,7 +3909,7 @@
       <c r="S22" s="15"/>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -3874,7 +3936,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="16"/>
     </row>
-    <row r="24" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -3901,7 +3963,7 @@
       <c r="S24" s="15"/>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -3928,7 +3990,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="2:20" s="17" customFormat="1" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20" s="17" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3984,27 +4046,26 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" customWidth="1"/>
-    <col min="6" max="6" width="35.1796875" customWidth="1"/>
-    <col min="7" max="8" width="28.54296875" customWidth="1"/>
-    <col min="9" max="9" width="35.1796875" customWidth="1"/>
-    <col min="10" max="11" width="28.54296875" customWidth="1"/>
-    <col min="12" max="12" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="12" width="28.5703125" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:13" ht="27.95" customHeight="1">
       <c r="B2" s="46" t="s">
         <v>24</v>
       </c>
@@ -4017,9 +4078,10 @@
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
       <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="2:12" ht="6.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+    </row>
+    <row r="3" spans="2:13" ht="6.6" customHeight="1">
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -4030,111 +4092,119 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="2:13" ht="20.45" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
-      <c r="J4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
-    </row>
-    <row r="5" spans="2:12" s="7" customFormat="1" ht="109" x14ac:dyDescent="0.35">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="2:13" s="7" customFormat="1" ht="108.95">
       <c r="B5" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="K5" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" s="17" customFormat="1" ht="87">
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="41" t="s">
+      <c r="H6" s="41" t="s">
         <v>55</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>49</v>
       </c>
       <c r="I6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="41" t="s">
-        <v>50</v>
+      <c r="J6" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -4145,9 +4215,10 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -4158,9 +4229,10 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -4171,9 +4243,10 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -4184,9 +4257,10 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -4197,9 +4271,10 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -4210,9 +4285,10 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -4223,9 +4299,10 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -4236,9 +4313,10 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -4249,9 +4327,10 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -4262,9 +4341,10 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -4275,9 +4355,10 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -4288,9 +4369,10 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -4301,9 +4383,10 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -4314,9 +4397,10 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -4327,9 +4411,10 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -4340,9 +4425,10 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -4353,9 +4439,10 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="2:12" s="17" customFormat="1" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="2:13" s="17" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4366,14 +4453,15 @@
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4387,21 +4475,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4410,10 +4498,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010020DEE93CC4124F468B629FDD49B3A06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="a752018f6f687596d9fdf24a5aa26d08">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65742af2-0081-430f-a185-8920289ac160" xmlns:ns3="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="875771711deca117c8bc954e8f86981d" ns2:_="" ns3:_="">
-    <xsd:import namespace="65742af2-0081-430f-a185-8920289ac160"/>
-    <xsd:import namespace="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A8161C32A9DF9643B594BFB9F2A0C741" ma:contentTypeVersion="10" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="653c0e864ce5f931964c736b9eb8bf3d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41b0e936-3a60-41f2-b367-035ce672931f" xmlns:ns3="07bcbbe2-0ef2-445a-a4d4-8fc6118c6b19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f70968416a0093edbe620b363c9914b9" ns2:_="" ns3:_="">
+    <xsd:import namespace="41b0e936-3a60-41f2-b367-035ce672931f"/>
+    <xsd:import namespace="07bcbbe2-0ef2-445a-a4d4-8fc6118c6b19"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4422,18 +4519,14 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4441,7 +4534,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="65742af2-0081-430f-a185-8920289ac160" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b0e936-3a60-41f2-b367-035ce672931f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -4454,60 +4547,41 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="10" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d2a44d23-90f1-4afd-aa8c-0d6faad4ae95" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="07bcbbe2-0ef2-445a-a4d4-8fc6118c6b19" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4526,23 +4600,12 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1ff4a863-3d7b-458c-853d-64c27905ee86}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="34c5978a-6285-4111-9aba-dd5c4d9e9cd5">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4644,68 +4707,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65742af2-0081-430f-a185-8920289ac160">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CAD4EC8-8B6D-4706-A46D-38432CAC0E77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65742af2-0081-430f-a185-8920289ac160"/>
-    <ds:schemaRef ds:uri="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE31FA81-EC5E-41C0-95D7-315EE4A75EED}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8248B20D-6E8C-4467-917C-3BFA12502584}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="65742af2-0081-430f-a185-8920289ac160"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{268E866C-A8EB-4A24-A7CB-BBB9381E43FD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE31FA81-EC5E-41C0-95D7-315EE4A75EED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8248B20D-6E8C-4467-917C-3BFA12502584}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
